--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/142.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/142.xlsx
@@ -479,13 +479,13 @@
         <v>-13.44845420527558</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.709359239685877</v>
+        <v>-9.771586955092602</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.061598456468208</v>
+        <v>-3.064557316910438</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.483428911787416</v>
+        <v>-6.557505161265903</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.45964541666871</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.99911808617896</v>
+        <v>-10.06243246272155</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.024115193432346</v>
+        <v>-3.020252964094037</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.450776708500152</v>
+        <v>-6.52510171173263</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.52462908944149</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.82232281195817</v>
+        <v>-10.88578120383202</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.840626569105555</v>
+        <v>-2.832038018441383</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.334019551757638</v>
+        <v>-6.406799663254794</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.59694594026788</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.55045123450076</v>
+        <v>-11.6133728419581</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.800668860832607</v>
+        <v>-2.796714985374406</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.573229016978816</v>
+        <v>-6.647933696993705</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.63121057198356</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.39905502779292</v>
+        <v>-12.465472280109</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.609521239343407</v>
+        <v>-2.601796780666788</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.089651719216822</v>
+        <v>-6.161332077275272</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.58679180044691</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.0863878346807</v>
+        <v>-13.15129947216998</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.550448768921539</v>
+        <v>-2.541192510812439</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.182175023399299</v>
+        <v>-6.252179566694009</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.40896513030445</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.64799525737938</v>
+        <v>-13.71674293960129</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.451274574895464</v>
+        <v>-2.444715331171759</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.677152533582558</v>
+        <v>-5.743386493658851</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.08204501344427</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.65348411562394</v>
+        <v>-14.72295187450214</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.260755383942666</v>
+        <v>-2.258110738768637</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.484224358906883</v>
+        <v>-5.544645336521449</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.58814702994052</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.40231146895931</v>
+        <v>-15.47091513584995</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.232999701918207</v>
+        <v>-2.229032734157164</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.112193481356395</v>
+        <v>-5.172090766857292</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.94107469038812</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.10083819477676</v>
+        <v>-16.17293750652615</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.025879470962101</v>
+        <v>-2.020969857396453</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.878888644716836</v>
+        <v>-4.938445530343849</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.18725135163788</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.75084484626278</v>
+        <v>-16.82282632728658</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.131207047323787</v>
+        <v>-2.134375384611484</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.352355501331139</v>
+        <v>-4.413679847841784</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.37149417329663</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.72959922210453</v>
+        <v>-17.79969541151914</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.920381694663472</v>
+        <v>-1.921769478764695</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.685826363658865</v>
+        <v>-3.742843342534582</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.57845467482359</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.32125347982497</v>
+        <v>-18.39055103876623</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.661206467608662</v>
+        <v>-1.664309343382152</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.408073158871646</v>
+        <v>-3.470746012574989</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.870092440326708</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.24651270625544</v>
+        <v>-19.31846800267357</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.52177344234428</v>
+        <v>-1.526224825310467</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.814363409605053</v>
+        <v>-2.877285017062388</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.297586288745061</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.16590658101281</v>
+        <v>-20.23949841528615</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.352817274171805</v>
+        <v>-1.355789226916877</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.393367319426509</v>
+        <v>-2.451641159375032</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.900601417282937</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.96293979341141</v>
+        <v>-21.03638761235349</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.171148479940014</v>
+        <v>-1.178493261834222</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.898884133397358</v>
+        <v>-1.959907356942643</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.67128463390578</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.92442542180493</v>
+        <v>-21.9972709948163</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.070704332538292</v>
+        <v>-1.076792253359694</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.528738547456078</v>
+        <v>-1.586816002861975</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.608268752750707</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.76881349358205</v>
+        <v>-22.84244460476392</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9716610615406339</v>
+        <v>-0.9811529811008853</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.176974554704582</v>
+        <v>-1.238194162792493</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.677100815188255</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.45640814652667</v>
+        <v>-23.53382293322979</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7544204804878734</v>
+        <v>-0.7672378449699231</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8414712020825099</v>
+        <v>-0.90245514871927</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.835133334558879</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.06916719642797</v>
+        <v>-24.14550841429808</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4805818742503309</v>
+        <v>-0.4961224377234597</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4804902281304388</v>
+        <v>-0.5392615755869471</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.048206450319455</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.73949310192435</v>
+        <v>-24.81808619588323</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3237360862064526</v>
+        <v>-0.3454693089237179</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.3032990014705182</v>
+        <v>-0.3512168298712356</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-8.262287596248788</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.16361825248206</v>
+        <v>-25.23851931703958</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2577901567926784</v>
+        <v>-0.2808718867026414</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1041127060364978</v>
+        <v>-0.1544526104629345</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.450844171320323</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.60183072089747</v>
+        <v>-25.68042381485636</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2889629298588282</v>
+        <v>-0.3131313209046545</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07766625429621112</v>
+        <v>-0.1240653755672883</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.584686217052772</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.85646291886621</v>
+        <v>-25.93356349030113</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01473921916069147</v>
+        <v>-0.009114956616933423</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07041311852189487</v>
+        <v>-0.114665102126929</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.641669979567681</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.86451468511387</v>
+        <v>-25.94360528658073</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01597532330599788</v>
+        <v>-0.04259197498322698</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2351404728764923</v>
+        <v>-0.2798375947781451</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.62024180506708</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.87678217287657</v>
+        <v>-25.96000994204142</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2112470201903422</v>
+        <v>-0.237353072056744</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2096628515464933</v>
+        <v>-0.2528543586213476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.511087767738182</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.9283134768616</v>
+        <v>-26.00816343189329</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.01657756923671728</v>
+        <v>-0.03755143838916244</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5074865565900779</v>
+        <v>-0.5517647248007955</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.326809724419059</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.01883365870929</v>
+        <v>-26.10342302736969</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07262571770214658</v>
+        <v>-0.09354721764322484</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5734848552152191</v>
+        <v>-0.6160872086621957</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.080094181058316</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.76442402988887</v>
+        <v>-25.84456201558308</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1735673726118546</v>
+        <v>-0.1936509651710624</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.7205245084306445</v>
+        <v>-0.7602072783439162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.785940537151471</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.33633191157011</v>
+        <v>-25.41976915758043</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1829414614465304</v>
+        <v>-0.2029988694000548</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.23854765496922</v>
+        <v>-1.279722947406448</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.473065182884674</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.40323357909134</v>
+        <v>-25.4905461467428</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1044531059103826</v>
+        <v>-0.121643299541569</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.39366525903799</v>
+        <v>-1.44015602642896</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.154605574921653</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.98619136437099</v>
+        <v>-25.07030941012908</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1537849030180065</v>
+        <v>-0.1700455431474303</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.89275693566743</v>
+        <v>-1.940635487159622</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.854041797777567</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.35673962834649</v>
+        <v>-24.43775479833108</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2087463903475725</v>
+        <v>-0.2207127551449101</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.929690321983939</v>
+        <v>-1.974426720794117</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.586846136602717</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.00244882114654</v>
+        <v>-24.08214166854412</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.4086265778322044</v>
+        <v>-0.4204882042068082</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.06145125778307</v>
+        <v>-2.110586670348068</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.357360006262734</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.21518246666787</v>
+        <v>-23.29153677684081</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5083113716691067</v>
+        <v>-0.5181305988004012</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.234426762927955</v>
+        <v>-2.282043468363313</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.180726945113906</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.42316360625765</v>
+        <v>-22.49874547056293</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4558374218794686</v>
+        <v>-0.4670182485063026</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.39352442706061</v>
+        <v>-2.443445377796112</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.051559780501234</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.04441637734935</v>
+        <v>-22.12225011774341</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5144647540047179</v>
+        <v>-0.5252266269406167</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.664888588061066</v>
+        <v>-2.715686723086963</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.973032929738433</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.39046894270798</v>
+        <v>-21.46677088366956</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4466728098902604</v>
+        <v>-0.4615325736156194</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.847513120400303</v>
+        <v>-2.901126100537172</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.944068129521273</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.00236071726785</v>
+        <v>-21.07549432094173</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6438559829894966</v>
+        <v>-0.6523921644423021</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.043007386432957</v>
+        <v>-3.0947612595663</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.951920642687779</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.38463968458953</v>
+        <v>-20.451934121196</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4287887242084625</v>
+        <v>-0.4421297808041814</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.948454775310011</v>
+        <v>-3.003259155005477</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.001316461733652</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.87664524202772</v>
+        <v>-19.94860053844584</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1839757533710268</v>
+        <v>-0.1964265333735083</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.041213740943641</v>
+        <v>-3.102524995151444</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.07985799008219</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.96140162727117</v>
+        <v>-19.03134070905167</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1648609912221067</v>
+        <v>-0.1753348334954876</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.01360207425044</v>
+        <v>-3.078552988648243</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.185015909052778</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.63080788821475</v>
+        <v>-18.69955557043665</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1155946556286915</v>
+        <v>-0.125178221308835</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.240046544200934</v>
+        <v>-3.307484996138665</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.318182692354656</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.06909572709333</v>
+        <v>-18.13402045688545</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1419232766434027</v>
+        <v>-0.1520305344372152</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.305481873803881</v>
+        <v>-3.374491402082619</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.46843830660774</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.6088489129953</v>
+        <v>-17.6719799972981</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.06950974962581577</v>
+        <v>-0.07845179246671469</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.133815598943169</v>
+        <v>-3.19655391416072</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.647263559765644</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.92536524314298</v>
+        <v>-16.98638846668827</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1173752088151663</v>
+        <v>-0.1288964353158852</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.50663201466416</v>
+        <v>-3.572761236317719</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.852209414121769</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.26624634887913</v>
+        <v>-16.32708628018463</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.07733894672516796</v>
+        <v>-0.08588822048081508</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.37548641709859</v>
+        <v>-3.436352533009775</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.086847392425946</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.63718738193987</v>
+        <v>-15.69138951570462</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01658523386137485</v>
+        <v>0.006569622187454407</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.661369941950521</v>
+        <v>-3.727747917358072</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.362350123186244</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.92416747687663</v>
+        <v>-14.97488705808548</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0986739726789973</v>
+        <v>0.08482231627245111</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.619147265285954</v>
+        <v>-3.686507163406635</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.670504645757552</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.10715541034156</v>
+        <v>-14.15736439173958</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1273984851137443</v>
+        <v>0.114175259243601</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.779711267336883</v>
+        <v>-3.852727040285189</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.024180279217092</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.52245316543007</v>
+        <v>-13.57435105389467</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1949416754742091</v>
+        <v>0.1819279264495334</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.703658080129296</v>
+        <v>-3.768530440710049</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.41909180088385</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.85792715009258</v>
+        <v>-12.90601517843024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2638726499358968</v>
+        <v>0.2524692541607534</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.754901353451812</v>
+        <v>-3.821724467155982</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.84984379052381</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.47485946124652</v>
+        <v>-12.52243688977335</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1335125905408304</v>
+        <v>0.1185873653012626</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.943757821943711</v>
+        <v>-4.015988056721513</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.320449274272386</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.90070961242546</v>
+        <v>-11.93969849028812</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.03317860924002593</v>
+        <v>-0.04256579037754353</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.367594941838909</v>
+        <v>-4.434941747656747</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.810539215090952</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.47196287896462</v>
+        <v>-11.51015312635393</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.03645168495045745</v>
+        <v>-0.05084012577351441</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.480267300094803</v>
+        <v>-4.550991920045807</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.32166550652281</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.69744842745379</v>
+        <v>-10.7348531366726</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.0845397132881173</v>
+        <v>-0.09733089316448366</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.893813869956404</v>
+        <v>-4.968741119119603</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.83940049750504</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.43810300046203</v>
+        <v>-10.47655509390818</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2510476208291894</v>
+        <v>-0.2625819396327501</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.90872600289313</v>
+        <v>-4.981034791487984</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.34716199730623</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.829206179899039</v>
+        <v>-9.863678213281304</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.197539379115055</v>
+        <v>-0.2106578665624645</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.215216812417937</v>
+        <v>-5.289306154199266</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.84427277149762</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.501401101347902</v>
+        <v>-9.54091367132423</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.302448001785806</v>
+        <v>-0.3145191050058774</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.095592441353086</v>
+        <v>-5.167102599474594</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.30657632846305</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.940081709311738</v>
+        <v>-8.977132926353823</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3291432072800854</v>
+        <v>-0.3412274028029986</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.468055364897351</v>
+        <v>-5.539002553996665</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.73745696525313</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.463705178112694</v>
+        <v>-8.501293179571288</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2813563019077853</v>
+        <v>-0.2925502208374611</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.493035478719364</v>
+        <v>-5.565422821131268</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.12815882229482</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.01389292937951</v>
+        <v>-8.050917961815912</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2973158190718493</v>
+        <v>-0.3073837999571367</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.475531069819977</v>
+        <v>-5.547826766111989</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.46933681085203</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.663045397826935</v>
+        <v>-7.702492506289056</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4493960088813393</v>
+        <v>-0.4585737131733894</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.65403152676407</v>
+        <v>-5.724311008418455</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.77014794551844</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.310692251447562</v>
+        <v>-7.349419283253387</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3769039280467021</v>
+        <v>-0.3842618022437522</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.90440872630924</v>
+        <v>-5.971074732379309</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.0144944835972</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.057618037516996</v>
+        <v>-7.095454792729585</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4955725610041072</v>
+        <v>-0.5043705885137472</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.858546389454673</v>
+        <v>-5.922790319499023</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.21433677516995</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.891123222278766</v>
+        <v>-6.929143269731139</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5924032328215132</v>
+        <v>-0.6011619834226279</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.946291003099922</v>
+        <v>-6.008924579894739</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.36731708825051</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.610214772506692</v>
+        <v>-6.647632574028345</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5398245446091413</v>
+        <v>-0.5496568640432776</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.91146547754093</v>
+        <v>-5.971323486133302</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.46788725498403</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.497398398919539</v>
+        <v>-6.537028799621443</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8348334045417548</v>
+        <v>-0.8461451541970062</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.936785991236828</v>
+        <v>-5.993030524244883</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.53165261380517</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.30854193042764</v>
+        <v>-6.349429192202351</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7414329160688811</v>
+        <v>-0.7499167283103195</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.768720099657591</v>
+        <v>-5.822987694936545</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.54748564896842</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.227042345237895</v>
+        <v>-6.27069208291221</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8112541671238062</v>
+        <v>-0.8202616714789137</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.676589564560365</v>
+        <v>-5.728736206778959</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.53189988633328</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.238236264167571</v>
+        <v>-6.284439000896022</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9415749496103475</v>
+        <v>-0.9522189918206707</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.490050433671451</v>
+        <v>-5.537287462324399</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.48809075588947</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.294755735535302</v>
+        <v>-6.341469072074581</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9964055139114962</v>
+        <v>-1.007638709749697</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.31748078991466</v>
+        <v>-5.366066325760305</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.4131107222756</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.511721378228387</v>
+        <v>-6.558421622464824</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.875733758619307</v>
+        <v>-0.8870455082745584</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.169393752471897</v>
+        <v>-5.215897612165707</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.32602765627814</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.685783544509134</v>
+        <v>-6.731135281552874</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.220715938498789</v>
+        <v>-1.234187918122925</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.000542322722155</v>
+        <v>-5.046784336359131</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.21617678640391</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.156216170218036</v>
+        <v>-7.200245584674761</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.15549008574131</v>
+        <v>-1.170074911106993</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.773115930058531</v>
+        <v>-4.81535169902594</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.09988046792567</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.586206672448845</v>
+        <v>-7.626714257441146</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222378660959688</v>
+        <v>-1.238364362729436</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.708047184935153</v>
+        <v>-4.752220614723137</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.98176703506392</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.187876541843208</v>
+        <v>-8.228619788286659</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.274813333840801</v>
+        <v>-1.288193667345045</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.346189026692686</v>
+        <v>-4.393426055345634</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.85755966273694</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.599367620158658</v>
+        <v>-8.6395740821856</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.290628835673606</v>
+        <v>-1.307622644762167</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.205616971081073</v>
+        <v>-4.254477445286395</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.74891344447327</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.047857546304828</v>
+        <v>-9.086807147258963</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.408433376643457</v>
+        <v>-1.42157804869655</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.850959579401556</v>
+        <v>-3.900540130263173</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-13.64656461130802</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.935541863579537</v>
+        <v>-9.971689711725544</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.389659014368422</v>
+        <v>-1.405814916075112</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.857898499907671</v>
+        <v>-3.90984875758364</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-13.56580248661087</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.68807433861911</v>
+        <v>-10.71995409603871</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.473737783217987</v>
+        <v>-1.490639946186655</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.653724037090953</v>
+        <v>-3.704299602968541</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.51272698748697</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.47712124628426</v>
+        <v>-11.50608142017015</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.607829148922945</v>
+        <v>-1.625451388547909</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.32405985153629</v>
+        <v>-3.37684801659413</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.47741161389453</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.66475022166291</v>
+        <v>-12.69588371782054</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.674652262627115</v>
+        <v>-1.691436594870208</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.178080674851045</v>
+        <v>-3.23030587088669</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.47913172503647</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.54379361906208</v>
+        <v>-13.57188970096043</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.739406792482292</v>
+        <v>-1.753991617847975</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.846596659201382</v>
+        <v>-2.898062501672208</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.50491879427237</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.66349972729786</v>
+        <v>-14.68686948787034</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.925919738765522</v>
+        <v>-1.940177256560162</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.592540522557688</v>
+        <v>-2.644883549318909</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.56350019154325</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.71945941299728</v>
+        <v>-15.74011906688152</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.956555727415161</v>
+        <v>-1.970721599089909</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.1634664815258</v>
+        <v>-2.214487185700006</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.66115322952583</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.11375038873258</v>
+        <v>-17.13308772002981</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.903571177814696</v>
+        <v>-1.912644143684012</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.889313660020056</v>
+        <v>-1.943267040030809</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.78428380647581</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.74121527807903</v>
+        <v>-18.75718788754593</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.124241942211988</v>
+        <v>-2.134323015400117</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.709713449637258</v>
+        <v>-1.763404983591176</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.95569604923091</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.31985897012867</v>
+        <v>-20.33406411871194</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.337358447869605</v>
+        <v>-2.345082906546224</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.427168462009967</v>
+        <v>-1.480506503787159</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.16522066183892</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.02151793967917</v>
+        <v>-22.02716072220396</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.496979804115929</v>
+        <v>-2.500567095094563</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.565802856801005</v>
+        <v>-1.618276806590643</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.41876210501521</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.67106954391961</v>
+        <v>-23.67249660492936</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.606064871393191</v>
+        <v>-2.61212660760891</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.36567391556238</v>
+        <v>-1.417872926992342</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.72163996571409</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.77445273386563</v>
+        <v>-25.77542156427592</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.718645583529193</v>
+        <v>-2.720295213687251</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.337813495115187</v>
+        <v>-1.389449537522955</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-15.04782849153014</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.99027262061641</v>
+        <v>-27.98902885184644</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.567285470375999</v>
+        <v>-2.567272378073157</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.434460874692809</v>
+        <v>-1.48294167211572</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.40538131334526</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.25319861299171</v>
+        <v>-30.24900907608235</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.007108292040944</v>
+        <v>-3.0048040467408</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.7905846042906</v>
+        <v>-1.840780493385777</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-15.7624154118727</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.48222863330977</v>
+        <v>-32.47902101911355</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.022688132422598</v>
+        <v>-3.015225519802814</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.049380154562999</v>
+        <v>-2.101147119999184</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-16.10096497722452</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.72188960353533</v>
+        <v>-34.72060655785684</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.301174506168953</v>
+        <v>-3.289483079731292</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.229726626207775</v>
+        <v>-2.278325254356262</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-16.401384305107</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22534738371882</v>
+        <v>-37.22253253860785</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.551800459468116</v>
+        <v>-3.541025494229375</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.677745229451642</v>
+        <v>-2.729394364162251</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-16.62779138991433</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68346651916141</v>
+        <v>-39.67445901480631</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.485802160842974</v>
+        <v>-3.477082687150385</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.155221514089391</v>
+        <v>-3.207800202301763</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-16.76873806020517</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25349865929508</v>
+        <v>-42.24502793935649</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.664145510152967</v>
+        <v>-3.655268928826277</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.447559544242293</v>
+        <v>-3.496852064441391</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-16.8175769774499</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55004568536794</v>
+        <v>-44.54311985716466</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.869773218585117</v>
+        <v>-3.859953991453822</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.969484197027702</v>
+        <v>-4.012872088645183</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-16.73662934621155</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86836521106658</v>
+        <v>-46.8621594595196</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.998876416907377</v>
+        <v>-3.987839605611802</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.274482484028552</v>
+        <v>-4.318970129084738</v>
       </c>
     </row>
   </sheetData>
